--- a/doc/Andalusier documenten/Individuele taakverdeling/Maaike/Maaike taken.xlsx
+++ b/doc/Andalusier documenten/Individuele taakverdeling/Maaike/Maaike taken.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karin\Desktop\Andalusier documenten\Individuele taakverdeling\Maaike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\htdocs\andalusier\doc\Andalusier documenten\Individuele taakverdeling\Maaike\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -157,8 +156,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -317,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,9 +345,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -716,11 +717,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="66.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -730,7 +731,7 @@
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -746,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,7 +760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -771,12 +772,12 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="25"/>
       <c r="I3" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -793,7 +794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -807,7 +808,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -824,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -832,7 +833,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -840,7 +841,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -848,7 +849,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -858,7 +859,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
@@ -872,7 +873,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
@@ -886,7 +887,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -900,7 +901,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -914,7 +915,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -926,9 +927,9 @@
       <c r="E15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -936,7 +937,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -944,7 +945,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -952,7 +953,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -962,7 +963,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
@@ -976,7 +977,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
@@ -990,7 +991,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1012,7 +1013,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1020,7 +1021,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1028,7 +1029,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -1038,7 +1039,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -1052,7 +1053,7 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -1066,7 +1067,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
@@ -1078,9 +1079,9 @@
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="18" t="s">
         <v>41</v>
       </c>

--- a/doc/Andalusier documenten/Individuele taakverdeling/Maaike/Maaike taken.xlsx
+++ b/doc/Andalusier documenten/Individuele taakverdeling/Maaike/Maaike taken.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Pagina(s)</t>
   </si>
@@ -151,13 +151,16 @@
   </si>
   <si>
     <t>Moeilijkheidsgraad</t>
+  </si>
+  <si>
+    <t>Mee bezig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -191,8 +194,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -347,6 +361,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -717,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -809,7 +826,7 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11"/>
@@ -848,6 +865,9 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
+      <c r="I9" s="28" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -888,7 +908,7 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1"/>
@@ -916,7 +936,7 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="11"/>
@@ -1068,7 +1088,7 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="1"/>
@@ -1097,5 +1117,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Andalusier documenten/Individuele taakverdeling/Maaike/Maaike taken.xlsx
+++ b/doc/Andalusier documenten/Individuele taakverdeling/Maaike/Maaike taken.xlsx
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,6 +364,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -734,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -936,7 +938,7 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="11"/>
@@ -998,7 +1000,7 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1"/>
@@ -1088,7 +1090,7 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="1"/>

--- a/doc/Andalusier documenten/Individuele taakverdeling/Maaike/Maaike taken.xlsx
+++ b/doc/Andalusier documenten/Individuele taakverdeling/Maaike/Maaike taken.xlsx
@@ -200,7 +200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,6 +372,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -736,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -808,7 +815,7 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="25"/>
       <c r="I4" s="21" t="s">
         <v>12</v>
       </c>
@@ -935,7 +942,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="30" t="s">

--- a/doc/Andalusier documenten/Individuele taakverdeling/Maaike/Maaike taken.xlsx
+++ b/doc/Andalusier documenten/Individuele taakverdeling/Maaike/Maaike taken.xlsx
@@ -744,7 +744,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -993,7 +993,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1"/>
@@ -1007,7 +1007,7 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1"/>
